--- a/src/assets/file_excel/Struktur_Excel_Data_Alumni.xlsx
+++ b/src/assets/file_excel/Struktur_Excel_Data_Alumni.xlsx
@@ -29,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Email</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nama</t>
   </si>
@@ -61,12 +58,6 @@
     <t>Ujung Pangkah</t>
   </si>
   <si>
-    <t>awik</t>
-  </si>
-  <si>
-    <t>awik123</t>
-  </si>
-  <si>
     <t>rpl</t>
   </si>
   <si>
@@ -76,17 +67,20 @@
     <t>2000-02-20</t>
   </si>
   <si>
-    <t>murid@gmail.com</t>
-  </si>
-  <si>
     <t>Contoh</t>
+  </si>
+  <si>
+    <t>bkk</t>
+  </si>
+  <si>
+    <t>bkk12345</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,13 +97,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -119,14 +106,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,24 +160,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1" applyProtection="1">
@@ -208,21 +184,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,30 +493,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="25.7109375" style="2"/>
+    <col min="3" max="3" width="24.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="25.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="21.95" customHeight="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="21.95" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -556,60 +526,51 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1">
+      <c r="A2" s="2">
+        <v>123456789</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2">
-        <v>123456789</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CC3D" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"rpl,kuliner,atph,busana"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="awik@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
